--- a/outputs/BBVA JUN-JUL真实1-MSN20251016154/BBVA JUN-JUL真实1-MSN20251016154_audit_report.xlsx
+++ b/outputs/BBVA JUN-JUL真实1-MSN20251016154/BBVA JUN-JUL真实1-MSN20251016154_audit_report.xlsx
@@ -488,7 +488,7 @@
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>生成时间: 2026-01-31 21:44:47</t>
+          <t>生成时间: 2026-02-01 10:32:08</t>
         </is>
       </c>
     </row>
@@ -680,32 +680,35 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤说明】
-严格按照规则定义的判断逻辑执行：
-Step 1: 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)' 对应的总笔数。数据中明确给出：'Depósitos / Abonos (+): 5  233,768.72'，因此数值1 = 5。
-Step 2: 遍历 'Detalle de Movimientos Realizados' 部分的所有交易行。数据中明确给出总笔数为35。
-Step 3: 关键过滤：仅统计 'Abonos' 列有有效数值（非空且不为0）的行。数据中已提供参考值：'其中包含有效 Abonos (入账) 的交易数: 5'。为严格遵循步骤，逐条核对明细：
-  1. 交易3: Abono:24360.0 (有效)
-  2. 交易10: Abono:24360.0 (有效)
-  3. 交易20: Abono:49618.72 (有效)
-  4. 交易26: Abono:24940.0 (有效)
-  5. 交易32: Abono:110490.0 (有效)
-  其余30笔交易的 'Abonos' 列为'无'或空，均被忽略。
-Step 4: 计算符合条件的交易总行数。经统计，符合条件的交易共5笔。因此数值2 = 5。
-【校验规则执行】
-比较数值1（来自Comportamiento）与数值2（来自明细统计）是否相等。
-数值1 = 5
-数值2 = 5
-两者相等。
-【决策结果】
-根据规则，如果相等，输出“一致”（无异常）。
-【hit值判定】
-根据规则，'一致'对应 hit=false（合规/未命中）。</t>
+          <t>规则ID: MSTAR_BBVA_DTL_CNT_ABONOS
+规则名称: 明细交易笔数校验_入账笔数
+执行步骤与结果：
+(Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)'（入账）对应的总笔数（Total Movimientos Abonos）。
+- 数据来源：在提供的“Comportamiento”和“total_movimientos”部分，均明确列出“total_movimientos_abonos: 5”。
+- 提取结果：数值1 = 5。
+(Step 2) 遍历 'Detalle de Movimientos Realizados'或raw_transaction_data（交易明细）部分的所有交易行。
+- 数据来源：已提供的结构化明细，总笔数为35。
+(Step 3) [关键过滤] 仅统计 'Abonos' 列有有效数值（非空且不为0）的行。如果某行只有 'Cargo' 列有值，必须忽略。
+- 执行过程：遍历35笔明细，检查每行的“ABONOS”字段。
+- 过滤结果：符合条件的交易明细如下（共5笔）：
+  1. 行3: ABONOS:24360.0
+  2. 行10: ABONOS:24360.0
+  3. 行20: ABONOS:49618.72
+  4. 行26: ABONOS:24940.0
+  5. 行32: ABONOS:110490.0
+(Step 4) 计算符合条件的交易总行数。
+- 计算过程：统计上述列表，共计5行。
+- 提取结果：数值2 = 5。
+校验规则：比较1和2是否相等。
+- 比较结果：数值1 (5) 等于 数值2 (5)。
+决策结果：如果相等，输出一致（无异常）。
+- 最终判定：一致。
+hit值判定：根据规则，一致对应 hit=false。</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>数据中已提供预计算的'有效 Abonos (入账) 的交易数: 5'，与手动逐条核对结果完全一致，验证过程可靠。</t>
+          <t>数据中已提供预计算的参考值“有效 Abonos 交易数: 5”，与手动统计结果一致，验证无误。</t>
         </is>
       </c>
     </row>
@@ -736,56 +739,62 @@
 规则名称: 明细交易笔数校验_出账笔数
 执行步骤（严格按照判断逻辑）：
 (Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总笔数（Total Movimientos Cargos）。
-- 执行结果：在提供的 'Comportamiento' 和 'total_movimientos' 数据中，均明确显示 'Retiros / Cargos (-)' 的总笔数为 30。
-- 数值1 (来自Comportamiento/total_movimientos): 30
+- 数据来源：在提供的“Comportamiento”和“total_movimientos”部分，均明确列出“Retiros / Cargos (-): 30”和“total_movimientos_cargos: 30”。
+- 提取结果：数值1 = 30。
 (Step 2) 遍历 'Detalle de Movimientos Realizados'（交易明细）部分的所有交易行。
-- 执行结果：明细部分共列出 35 笔交易。
+- 明细部分总共有35笔交易。
 (Step 3) [关键过滤] 仅统计 'Cargos' 列有有效数值（非空且不为0）的行。如果某行只有 'Abono' 列有值，必须忽略。
-- 执行结果：根据数据中提供的参考值 '其中包含有效 Cargos (出账) 的交易数: 30'，确认过滤后符合条件的交易笔数为 30。
-- 为便于人工复核，列出所有 30 笔有效 Cargos 交易的金额明细（按原始顺序）：
-1. Cargo: 7200.0
-2. Cargo: 500.0
-4. Cargo: 4000.0
-5. Cargo: 12000.0
-6. Cargo: 3000.0
-7. Cargo: 300.0
-8. Cargo: 1700.0
-9. Cargo: 1500.0
-11. Cargo: 1000.0
-12. Cargo: 7000.0
-13. Cargo: 2000.0
-14. Cargo: 2500.0
-15. Cargo: 11000.0
-16. Cargo: 634.27
-17. Cargo: 1000.0
-18. Cargo: 535.0
-19. Cargo: 1000.0
-21. Cargo: 1000.0
-22. Cargo: 1000.0
-23. Cargo: 20000.0
-24. Cargo: 23000.0
-25. Cargo: 1400.0
-27. Cargo: 3200.0
-28. Cargo: 600.0
-29. Cargo: 11000.0
-30. Cargo: 1000.0
-31. Cargo: 1200.0
-33. Cargo: 12000.0
-34. Cargo: 5500.0
-35. Cargo: 2000.0
+- 根据数据中提供的参考值：“其中包含有效 Cargos (出账) 的交易数: 30”。
+- 为进行验证，人工复核明细：逐行检查“CARGOS”字段。
+- 符合条件的交易（CARGOS有数值）明细如下（共30笔）：
+  1. CARGOS:7200.0
+  2. CARGOS:500.0
+  4. CARGOS:4000.0
+  5. CARGOS:12000.0
+  6. CARGOS:3000.0
+  7. CARGOS:300.0
+  8. CARGOS:1700.0
+  9. CARGOS:1500.0
+  11. CARGOS:1000.0
+  12. CARGOS:7000.0
+  13. CARGOS:2000.0
+  14. CARGOS:2500.0
+  15. CARGOS:11000.0
+  16. CARGOS:634.27
+  17. CARGOS:1000.0
+  18. CARGOS:535.0
+  19. CARGOS:1000.0
+  21. CARGOS:1000.0
+  22. CARGOS:1000.0
+  23. CARGOS:20000.0
+  24. CARGOS:23000.0
+  25. CARGOS:1400.0
+  27. CARGOS:3200.0
+  28. CARGOS:600.0
+  29. CARGOS:11000.0
+  30. CARGOS:1000.0
+  31. CARGOS:1200.0
+  33. CARGOS:12000.0
+  34. CARGOS:5500.0
+  35. CARGOS:2000.0
+- 被忽略的交易（CARGOS为“无”或空，仅ABONOS有值）：第3、10、20、26、32行，共5笔。
 (Step 4) 计算符合条件的交易总行数。
-- 执行结果：经统计，上述列出的有效 Cargos 交易共 30 笔。
-- 数值2 (来自明细统计): 30
-校验规则（严格按照校验规则）：比较数值1和数值2是否相等。
-- 比较结果：数值1 (30) 等于 数值2 (30)。
-决策结果（严格按照决策结果）：如果相等，输出一致（无异常）。
-- 最终结论：明细中的出账交易笔数与 Comportamiento 中报告的总笔数一致。
-hit 值判定理由：根据规则定义，两个数值相等，输出“一致”，因此 hit=false（合规/未命中）。</t>
+- 统计结果：数值2 = 30。
+校验规则（严格按照校验规则）：
+比较数值1（来自Comportamiento）和数值2（来自明细统计）是否相等。
+- 数值1 = 30
+- 数值2 = 30
+- 比较结果：相等。
+决策结果（严格按照决策结果）：
+如果相等，输出一致（无异常）。
+- 结论：一致。
+最终判定：
+根据规则，两个数值相等，判定为“一致”，因此 hit=false。</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>数据充足，逻辑清晰，判定明确。</t>
+          <t>数据完整，计算过程清晰，统计笔数与系统提供的参考值及人工复核结果完全一致。</t>
         </is>
       </c>
     </row>
@@ -812,34 +821,33 @@
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>规则ID: MSTAR_BBVA_DTL_AMT_ABONOS
-规则名称: 明细交易金额校验_入账金额
-执行步骤（严格按照判断逻辑）：
-(Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)'（入账）对应的总金额。
-执行结果：从数据中提取到 'Depósitos / Abonos (+): 5  233,768.72'，总金额为 233,768.72。
-(Step 2) 遍历 'Detalle de Movimientos Realizados' 或raw_transaction_data部分。
-执行结果：已遍历提供的35笔交易明细。
-(Step 3) [关键过滤] 累加所有 'Abonos' 列的数值。忽略 'Cargo' 列的数值。
-执行结果：根据数据提示，有效 Abonos (入账) 的交易数为 5。现列出所有 Abonos 不为空的交易明细（共5笔）：
-1. 交易3: Abono: 24360.0
-2. 交易10: Abono: 24360.0
-3. 交易20: Abono: 49618.72
-4. 交易26: Abono: 24940.0
-5. 交易32: Abono: 110490.0
-(Step 4) 确保金额格式转换正确（处理千分位逗号）。
-执行结果：明细中金额均为数字格式，无需转换。
-计算过程（严格按照校验规则）：
-数值1（来自 Comportamiento）: 233,768.72
-数值2（来自 Detalle 累加）: 24360.0 + 24360.0 + 49618.72 + 24940.0 + 110490.0 = 233,768.72
-比较结果：数值1 (233,768.72) 与 数值2 (233,768.72) 相等。
-决策结果（严格按照决策结果）：
-两个数值相等，输出“一致”（无异常）。
-最终判定：根据规则，一致 = 合规 = hit=false。</t>
+          <t>【执行步骤说明】
+严格按照规则定义的判断逻辑执行：
+Step 1: 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)'（入账）对应的总金额。提取结果为：233,768.72。
+Step 2: 遍历 'Detalle de Movimientos Realizados' 部分。
+Step 3: 累加所有 'Abonos' 列的数值，忽略 'Cargo' 列的数值。
+Step 4: 确保金额格式转换正确（处理千分位逗号）。'Comportamiento' 中的金额已去除千分位逗号。明细中的 Abonos 金额均为数值格式，无需额外转换。
+【明细交易累加过程】
+根据数据，有效 Abonos 交易数为 5 笔，符合规则要求列出所有明细。具体交易如下（按原始顺序）：
+1. 第3笔：Abonos: 24,360.0
+2. 第10笔：Abonos: 24,360.0
+3. 第20笔：Abonos: 49,618.72
+4. 第26笔：Abonos: 24,940.0
+5. 第32笔：Abonos: 110,490.0
+求和计算：
+24,360.0 + 24,360.0 + 49,618.72 + 24,940.0 + 110,490.0 = 233,768.72
+【校验规则执行】
+比较 Step 1 的数值 (233,768.72) 与 Step 3 的累加结果 (233,768.72)。
+两个数值完全相等。
+【决策结果】
+根据规则，两个数值相等，输出“一致”。
+【最终判定】
+数据一致，未发现异常。因此 hit=false。</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>数据完整，计算过程清晰，结果明确。</t>
+          <t>明细中 Abonos 交易笔数（5笔）较少，已列出全部金额明细用于复核。计算总和与 Comportamiento 中报告的总入账金额完全一致。</t>
         </is>
       </c>
     </row>
@@ -868,55 +876,45 @@
         <is>
           <t>规则ID: MSTAR_BBVA_DTL_AMT_CARGOS
 规则名称: 明细交易金额校验_出账金额
-执行步骤（严格按照判断逻辑）：
+**执行步骤 (严格按照判断逻辑):**
 (Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总金额。
-执行结果：从数据中提取到 'Retiros / Cargos (-): 30  139,769.27'，因此数值1 = 139769.27。
+- 提取结果: 139,769.27 (来自数据中 'Retiros / Cargos (-): 30  139,769.27')
 (Step 2) 遍历 'Detalle de Movimientos Realizados' 或raw_transaction_data部分。
-执行结果：已遍历提供的35条明细交易记录。
+- 已遍历提供的35条明细交易记录。
 (Step 3) [关键过滤] 累加所有 'Cargos' 列的数值。忽略 'Abono' 列的数值。
-执行结果：根据数据，有效 Cargos (出账) 的交易数为30笔。现列出所有30笔Cargos金额明细（按原始顺序）：
-1. 7200.0
-2. 500.0
-4. 4000.0
-5. 12000.0
-6. 3000.0
-7. 300.0
-8. 1700.0
-9. 1500.0
-11. 1000.0
-12. 7000.0
-13. 2000.0
-14. 2500.0
-15. 11000.0
-16. 634.27
-17. 1000.0
-18. 535.0
-19. 1000.0
-21. 1000.0
-22. 1000.0
-23. 20000.0
-24. 23000.0
-25. 1400.0
-27. 3200.0
-28. 600.0
-29. 11000.0
-30. 1000.0
-31. 1200.0
-33. 12000.0
-34. 5500.0
-35. 2000.0
+- 根据数据，有效 Cargos (出账) 的交易数为 30 笔。
+- 由于交易笔数较多（30笔），根据要求，列出前3笔和后3笔Cargos金额作为示例，并展示求和过程。
+- 前3笔Cargos金额示例:
+  1. 7200.0
+  2. 500.0
+  3. 4000.0
+- 后3笔Cargos金额示例:
+  28. 600.0
+  29. 11000.0
+  30. 1000.0
+- 中间省略24笔Cargos金额明细。
+- 对所有30笔Cargos金额求和。
+- 求和过程: 7200.0 + 500.0 + 4000.0 + 12000.0 + 3000.0 + 300.0 + 1700.0 + 1500.0 + 1000.0 + 7000.0 + 2000.0 + 2500.0 + 11000.0 + 634.27 + 1000.0 + 535.0 + 1000.0 + 1000.0 + 1000.0 + 20000.0 + 23000.0 + 1400.0 + 3200.0 + 600.0 + 11000.0 + 1000.0 + 1200.0 + 12000.0 + 5500.0 + 2000.0 = 139,769.27
+- 求和结果 (来自明细): 139,769.27
 (Step 4) 确保金额格式转换正确（处理千分位逗号）。
-执行结果：明细中所有金额均为数字格式，无需转换。对上述30笔金额求和：7200.0 + 500.0 + 4000.0 + 12000.0 + 3000.0 + 300.0 + 1700.0 + 1500.0 + 1000.0 + 7000.0 + 2000.0 + 2500.0 + 11000.0 + 634.27 + 1000.0 + 535.0 + 1000.0 + 1000.0 + 1000.0 + 20000.0 + 23000.0 + 1400.0 + 3200.0 + 600.0 + 11000.0 + 1000.0 + 1200.0 + 12000.0 + 5500.0 + 2000.0 = 139769.27。因此数值2 = 139769.27。
-校验规则（严格按照校验规则）：比较1和2是否相等。
-比较结果：数值1 (139769.27) 等于 数值2 (139769.27)。
-决策结果（严格按照决策结果）：如果相等，输出一致（无异常）。
-最终结论：明细交易中Cargos金额总和与Comportamiento中报告的出账总金额一致。
-hit值判定理由：根据规则，两个数值相等，输出“一致”，因此 hit=false。</t>
+- Comportamiento中的金额 '139,769.27' 已正确转换为数值 139769.27。
+- 明细中的Cargos金额均为数值格式，无需额外转换。
+**校验规则 (严格按照校验规则):**
+比较1和2是否相等。
+- 数值1 (来自Comportamiento): 139,769.27
+- 数值2 (来自明细求和): 139,769.27
+- 比较结果: 两个数值完全相等。
+**决策结果 (严格按照决策结果):**
+如果相等，输出一致（无异常）；如果不相等，输出不一致（异常）；
+- 由于两个数值相等，因此输出“一致”。
+**最终判定:**
+- 数据一致，无异常。
+- 根据规则，'一致' 对应 hit=false。</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>数据完整，计算过程清晰，结果明确。</t>
+          <t>明细中Cargos交易笔数为30笔，与Comportamiento中记录的30笔一致。求和金额也完全匹配。验证通过。</t>
         </is>
       </c>
     </row>
@@ -946,76 +944,24 @@
           <t>规则ID: MSTAR_BBVA_DTL_AMT_SINGLE
 规则名称: 明细交易金额校验_单笔金额
 执行步骤与结果：
-1. 保持交易列表的原始顺序：已严格按照提供的35笔交易顺序处理。
-2. 确定初始锚点(Balance_1)：第一行交易有 'Operacion' 值 5183.2，将其记为 Balance_1。计算起点从下一行（第2笔）开始。
-3. 寻找下一个锚点(Balance_2)并迭代核算：按照规则逻辑，遍历列表，找到所有包含 'Operacion' 或 'Saldo' 值的行作为锚点，进行区间核算。
-   - 锚点1 (Balance_1): 第1行，Operacion=5183.2
-   - 锚点2 (Balance_2): 第2行，Operacion=4683.2
-     区间：第2行（从Balance_1的下一行开始）到第2行（包含Balance_2）。
-     计算：Sum(Cargos)=500.0, Sum(Abonos)=0.0
-     result = 5183.2 - 500.0 + 0.0 - 4683.2 = 0.0
-   - 锚点3 (Balance_2): 第4行，Operacion=25043.2
-     区间：第3行到第4行。
-     计算：Sum(Cargos)=4000.0, Sum(Abonos)=24360.0
-     result = 4683.2 - 4000.0 + 24360.0 - 25043.2 = 0.0
-   - 锚点4 (Balance_2): 第7行，Operacion=9743.2
-     区间：第5行到第7行。
-     计算：Sum(Cargos)=12000.0+3000.0+300.0=15300.0, Sum(Abonos)=0.0
-     result = 25043.2 - 15300.0 + 0.0 - 9743.2 = 0.0
-   - 锚点5 (Balance_2): 第8行，Operacion=8043.2
-     区间：第8行（注意：第8行本身是锚点，但根据规则，区间包含Balance_2，因此需检查其自身Cargo/Abono对余额的影响。此处第8行Cargo=1700.0，但Operacion=8043.2，Saldo=9743.2。计算逻辑应为：Balance_1(9743.2) - Cargo(1700.0) = 8043.2，与Operacion一致，result应为0。为清晰，按规则公式计算：区间为第8行。Sum(Cargos)=1700.0, Sum(Abonos)=0.0。result = 9743.2 - 1700.0 + 0.0 - 8043.2 = 0.0）
-   - 锚点6 (Balance_2): 第9行，Operacion=6543.2
-     区间：第9行。
-     计算：Sum(Cargos)=1500.0, Sum(Abonos)=0.0
-     result = 8043.2 - 1500.0 + 0.0 - 6543.2 = 0.0
-   - 锚点7 (Balance_2): 第14行，Operacion=18403.2
-     区间：第10行到第14行。
-     计算：Sum(Cargos)=1000.0+7000.0+2000.0+2500.0=12500.0, Sum(Abonos)=24360.0
-     result = 6543.2 - 12500.0 + 24360.0 - 18403.2 = 0.0
-   - 锚点8 (Balance_2): 第16行，Operacion=6768.93
-     区间：第15行到第16行。
-     计算：Sum(Cargos)=11000.0+634.27=11634.27, Sum(Abonos)=0.0
-     result = 18403.2 - 11634.27 + 0.0 - 6768.93 = 0.0
-   - 锚点9 (Balance_2): 第19行，Operacion=4233.93
-     区间：第17行到第19行。
-     计算：Sum(Cargos)=1000.0+535.0+1000.0=2535.0, Sum(Abonos)=0.0
-     result = 6768.93 - 2535.0 + 0.0 - 4233.93 = 0.0
-   - 锚点10 (Balance_2): 第23行，Operacion=31852.65
-     区间：第20行到第23行。
-     计算：Sum(Cargos)=1000.0+1000.0+20000.0=22000.0, Sum(Abonos)=49618.72
-     result = 4233.93 - 22000.0 + 49618.72 - 31852.65 = 0.0
-   - 锚点11 (Balance_2): 第24行，Operacion=8852.65
-     区间：第24行。
-     计算：Sum(Cargos)=23000.0, Sum(Abonos)=0.0
-     result = 31852.65 - 23000.0 + 0.0 - 8852.65 = 0.0
-   - 锚点12 (Balance_2): 第25行，Operacion=7452.65
-     区间：第25行。
-     计算：Sum(Cargos)=1400.0, Sum(Abonos)=0.0
-     result = 8852.65 - 1400.0 + 0.0 - 7452.65 = 0.0
-   - 锚点13 (Balance_2): 第27行，Operacion=29192.65
-     区间：第26行到第27行。
-     计算：Sum(Cargos)=3200.0, Sum(Abonos)=24940.0
-     result = 7452.65 - 3200.0 + 24940.0 - 29192.65 = 0.0
-   - 锚点14 (Balance_2): 第30行，Operacion=16592.65
-     区间：第28行到第30行。
-     计算：Sum(Cargos)=600.0+11000.0+1000.0=12600.0, Sum(Abonos)=0.0
-     result = 29192.65 - 12600.0 + 0.0 - 16592.65 = 0.0
-   - 锚点15 (Balance_2): 第32行，Operacion=125882.65
-     区间：第31行到第32行。
-     计算：Sum(Cargos)=1200.0, Sum(Abonos)=110490.0
-     result = 16592.65 - 1200.0 + 110490.0 - 125882.65 = 0.0
-   - 锚点16 (Balance_2): 第35行，Operacion=106382.65
-     区间：第33行到第35行。
-     计算：Sum(Cargos)=12000.0+5500.0+2000.0=19500.0, Sum(Abonos)=0.0
-     result = 125882.65 - 19500.0 + 0.0 - 106382.65 = 0.0
-4. 校验规则：记录每一个轮次中步骤4的result值。所有轮次的result值均为0。
-5. 决策结果：因为所有的result值都为0，所以输出一致（无异常）。
-结论：所有锚点区间内的交易金额核算结果均为0，明细交易金额连续且正确。因此，规则未命中（合规/一致）。</t>
+1. 保持交易列表的原始顺序：已严格按照提供的35笔交易明细的原始顺序进行分析。
+2. 确定初始锚点(Balance_1)：第一行交易（索引1）有'OPERACIÓN'值5183.2，将其记为Balance_1。计算起点从下一行（索引2）开始。
+3. 寻找下一个锚点(Balance_2)并迭代核算：按照规则逻辑，从Balance_1开始，向下遍历找到下一个有'OPERACIÓN'或'SALDO OPERACIÓN'的行作为Balance_2，然后计算区间内Cargos和Abonos的累加和，并应用公式 result = Balance_1 - Sum(Cargos) + Sum(Abonos) - Balance_2。
+4. 校验结果：根据系统提供的内部计算（Balance Check Analysis），共进行了15轮区间核算。所有轮次的result值均为0.00。具体轮次如下（作为示例）：
+   - Round 1: 行[1-&gt;2]，Diff=0.00
+   - Round 2: 行[2-&gt;4]，Diff=0.00
+   - Round 3: 行[4-&gt;7]，Diff=0.00
+   - ... (中间轮次省略，因交易笔数超过30笔且验证通过)
+   - Round 13: 行[27-&gt;30]，Diff=0.00
+   - Round 14: 行[30-&gt;32]，Diff=0.00
+   - Round 15: 行[32-&gt;35]，Diff=0.00
+5. 决策：根据校验规则，需要检查所有轮次的result值是否都为0。当前所有15轮核算的result均为0。
+结论：所有区间核算结果均为0，明细交易金额连续且一致。根据决策结果，输出“一致”（无异常）。</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>已严格按照规则定义的判断逻辑、校验规则和决策结果执行。所有核算结果均为0，判定为一致。</t>
+          <t>系统提供的内部计算（Balance Check Analysis）已明确显示所有15轮核算的差异（Diff）均为0.00，结论为'所有区间校验通过'。这直接证明了规则校验逻辑的执行结果。因此，hit判定为false。</t>
         </is>
       </c>
     </row>
@@ -1042,9 +988,8 @@
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>执行步骤1：从数据中获取模糊匹配包含'Periodo'的信息。找到内容：'DEL 21/06/2025 AL 20/07/2025'。解析得到日期区间为：[开始日期 21/06/2025, 结束日期 20/07/2025]。
-执行步骤2：从'Detalle de Movimientos Realizados'中提取所有交易的OPER和LIQ日期。共35笔交易。计算所有日期中的最小日期(min_date)和最大日期(max_date)。
-明细如下（按原始顺序列出所有交易的OPER和LIQ日期）：
+          <t>执行步骤1：从提供的数据中获取模糊匹配包含'Periodo'的信息。找到内容为'DEL 21/06/2025 AL 20/07/2025'。解析后得到步骤1的日期区间为：[21/06/2025, 20/07/2025]。
+执行步骤2：从'Detalle de Movimientos Realizados'中提取所有交易的OPER和LIQ日期。明细共35笔，所有日期如下（格式：日/月）：
 1. Oper:21/JUN, Liq:23/JUN
 2. Oper:24/JUN, Liq:24/JUN
 3. Oper:26/JUN, Liq:26/JUN
@@ -1080,16 +1025,17 @@
 33. Oper:18/JUL, Liq:18/JUL
 34. Oper:18/JUL, Liq:18/JUL
 35. Oper:18/JUL, Liq:18/JUL
-计算得出：最小日期(min_date)为21/JUN（对应21/06/2025），最大日期(max_date)为18/JUL（对应18/07/2025）。
-执行校验规则：判断步骤2中的min_date（21/06/2025）和max_date（18/07/2025）是否都在步骤1的日期区间[21/06/2025, 20/07/2025]范围内。
-比较结果：min_date（21/06/2025）等于区间开始日期（21/06/2025），在区间内。max_date（18/07/2025）早于区间结束日期（20/07/2025），在区间内。因此，min_date和max_date均在步骤1的日期区间范围内。
-决策结果：根据规则，步骤2中的min_date和max_date在步骤1的日期区间范围内，输出“一致（无异常）”。
-结论：日期一致性校验通过，无异常。</t>
+计算最小日期(min_date)：所有日期中最早的是'21/JUN'（对应21/06/2025）。
+计算最大日期(max_date)：所有日期中最晚的是'18/JUL'（对应18/07/2025）。
+执行校验规则：判断步骤2中的min_date(21/06/2025)和max_date(18/07/2025)是否在步骤1的日期区间[21/06/2025, 20/07/2025]范围内。
+比较结果：min_date(21/06/2025)等于区间起始日(21/06/2025)，在区间内。max_date(18/07/2025)早于区间结束日(20/07/2025)，在区间内。
+决策结果：min_date和max_date均在步骤1的日期区间范围内，因此输出“一致（无异常）”。
+根据决策结果，规则未命中，hit=false。</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>规则仅校验交易明细中的最小和最大日期是否在Periodo声明的区间内。经核查，明细日期范围[21/JUN, 18/JUL]完全落在[21/06/2025, 20/07/2025]之内，符合规则要求。</t>
+          <t>规则仅校验交易明细中的最小和最大日期是否在Periodo声明的区间内。经核对，明细日期范围[21/06/2025, 18/07/2025]完全落在Periodo区间[21/06/2025, 20/07/2025]之内，符合规则要求。</t>
         </is>
       </c>
     </row>
@@ -1116,8 +1062,7 @@
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>步骤1：取出Detalle de Movimientos Realizados中所有交易的DESCRIPCION（描述）字段。
-已提取所有35笔交易的描述，按原始顺序列出如下：
+          <t>步骤1：取出Detalle de Movimientos Realizados中所有交易的DESCRIPCION字段值。共35笔交易，DESCRIPCION列表如下：
 1. RETIRO CAJERO AUTOMATICO JUN21 11:25 BBVA 9340 FOLIO:8584
 2. PAGO TARJETA DE CREDITO CUENTA: BMOV
 3. SPEI RECIBIDOSANTANDER 5292262PAGO ALMA RUTH CORONA HUERTA 00014811655024495195 20250626400140BET0000452922620 AS INTERMODAL SA DE CV
@@ -1153,56 +1098,51 @@
 33. RETIRO CAJERO AUTOMATICO JUL18 10:23 BBVA 7690 FOLIO:3685
 34. SPEI ENVIADO BANAMEX 0906250xx 00002385701804309013 MBAN01002507180070127319 Luis Alberto Corona Huerta
 35. PAGO CUENTA DE TERCERO BNET 1500027883 xx
-步骤2：将上述所有描述翻译成中文。
-已翻译所有描述，按原始顺序列出如下：
+步骤2：将上述DESCRIPCION翻译成中文。翻译结果如下：
 1. 自动取款机取款 JUN21 11:25 BBVA 9340 凭证号:8584
 2. 信用卡还款 账户: BMOV
-3. SPEI 收款 SANTANDER 5292262 付款 ALMA RUTH CORONA HUERTA ... AS INTERMODAL SA DE CV
+3. SPEI收款 SANTANDER 5292262 付款 ALMA RUTH CORONA HUERTA ... AS INTERMODAL SA DE CV
 4. 信用卡还款 账户: BMOV
 5. 自动取款机取款 JUN27 10:24 BBVA 9340 凭证号:1557
 6. 信用卡还款 账户: BMOV
 7. 信用卡还款 账户: BMOV
 8. 自动取款机取款 JUN28 09:10 BBVA 6728 凭证号:1767
 9. 向第三方账户付款 BNET 1500027883 汽车贷款
-10. SPEI 收款 SANTANDER 4039985 付款 AS ALMA RUTH CORONA HUERT ... AS INTERMODAL SA DE CV
+10. SPEI收款 SANTANDER 4039985 付款 AS ALMA RUTH CORONA HUERT ... AS INTERMODAL SA DE CV
 11. 信用卡还款 账户: BMOV
 12. 自动取款机取款 JUL03 11:07 BBVA 4990 凭证号:9573
-13. SPEI 发送 BANCOPPEL ... Jose Luis Aguilar
+13. SPEI发送 BANCOPPEL 0906250xx ... Jose Luis Aguilar
 14. 向第三方账户付款 BNET 1503166940 xx
 15. 自动取款机取款 JUL04 12:29 BBVA C516 凭证号:3411
 16. 信用卡还款 账户: BMOV
 17. 向第三方账户付款 BNET 1189291784 旅行
 18. 向第三方账户付款 BNET 1500027883 Tatis
-19. SPEI 发送 BANCOPPEL ... Jose Luis Aguilar
+19. SPEI发送 BANCOPPEL 0906250xx ... Jose Luis Aguilar
 20. 工资支付 0000300047226CP000101400
 21. 向第三方账户付款 BNET 1523845844 转账给 JOSE ROBE
 22. 自动取款机取款 JUL07 15:01 BBVA 4990 凭证号:1760
-23. SPEI 发送 BANAMEX ... Luis Alberto Corona Huerta
-24. SPEI 发送 BANORTE ... Alma
-25. SPEI 发送 BANCOPPEL ... Jose Luis Aguilar
-26. SPEI 收款 SANTANDER 6274788 付款 AS ALMA RUTH CORONA HUERT ... AS INTERMODAL SA DE CV
+23. SPEI发送 BANAMEX 0906250xx ... Luis Alberto Corona Huerta
+24. SPEI发送 BANORTE 0906250xx ... Alma
+25. SPEI发送 BANCOPPEL 0906250xx ... Jose Luis Aguilar
+26. SPEI收款 SANTANDER 6274788 付款 AS ALMA RUTH CORONA HUERT ... AS INTERMODAL SA DE CV
 27. 自动取款机取款 JUL10 20:05 BBVA E934 凭证号:6021
 28. 向第三方账户付款 BNET 1189291784 xx
 29. 自动取款机取款 JUL11 21:00 BBVA 9340 凭证号:8887
 30. 无卡取款
 31. 自动取款机取款 JUL17 12:46 BBVA 9340 凭证号:1908
-32. SPEI 收款 SANTANDER 8409055 付款 AS ALMA RUTH CORONA HUERT ... AS INTERMODAL SA DE CV
+32. SPEI收款 SANTANDER 8409055 付款 AS ALMA RUTH CORONA HUERT ... AS INTERMODAL SA DE CV
 33. 自动取款机取款 JUL18 10:23 BBVA 7690 凭证号:3685
-34. SPEI 发送 BANAMEX ... Luis Alberto Corona Huerta
+34. SPEI发送 BANAMEX 0906250xx ... Luis Alberto Corona Huerta
 35. 向第三方账户付款 BNET 1500027883 xx
-校验规则：检查所有中文描述是否命中任意一个关键词。
-关键词列表：现金密集型业务；小型零售商和街头摊贩（如露天市场摊贩）；夜总会；酒吧；娱乐场所经营者；灰色；非法行业关联者；未注册或非正式的安保服务提供商；涉嫌贷款翻转或文件造假的汽车贷款经纪人或中介；可能与贩毒或有组织犯罪相关的幌子企业（如虚假奢侈品转售店、空壳运输公司）；欺诈高发行业；不受监管的汽车经销商或中介，尤其是推广 “零首付” 优惠的或收入不规律或无法核实的自雇人士；在汽车金融行业工作的个人；独立或未注册的汽车维修店员工。
-逐条检查结果：
-- 所有描述均为常规银行交易，如取款、信用卡还款、工资入账、向第三方转账（包括备注为“汽车贷款”、“旅行”等）、SPEI收发款。
-- 没有任何一条描述包含上述关键词或其同义词。例如，第9笔交易备注“letra carro”（汽车贷款）是个人消费贷款还款，不涉及“汽车贷款经纪人或中介”的欺诈行为描述。
-- 没有描述提及现金密集型业务、零售摊贩、夜总会、酒吧、娱乐场所、灰色/非法行业、安保服务、幌子企业、欺诈高发行业、不受监管的汽车经销商、汽车金融行业从业者或汽车维修店员工。
-决策结果：所有描述均未命中关键词。
-结论：输出正常。</t>
+校验规则：检查上述中文描述是否命中任意一个高风险职业关键词。关键词列表：现金密集型业务；小型零售商和街头摊贩（如露天市场摊贩）；夜总会；酒吧；娱乐场所经营者；灰色；非法行业关联者；未注册或非正式的安保服务提供商；涉嫌贷款翻转或文件造假的汽车贷款经纪人或中介；可能与贩毒或有组织犯罪相关的幌子企业（如虚假奢侈品转售店、空壳运输公司）；欺诈高发行业；不受监管的汽车经销商或中介，尤其是推广 “零首付” 优惠的或收入不规律或无法核实的自雇人士；在汽车金融行业工作的个人；独立或未注册的汽车维修店员工。
+执行结果：逐一核对35笔交易的中文描述，未发现任何描述包含上述关键词。交易描述主要为：自动取款机取款、信用卡还款、SPEI收款/发送（来自/支付给个人或公司AS INTERMODAL SA DE CV）、工资支付、向第三方账户付款（备注包含“汽车贷款”、“旅行”等）。这些描述均不涉及关键词中定义的高风险职业。
+决策结果：所有交易均未命中关键词，输出正常。
+结论：根据规则MSTAR_BBVA_DTL_ANAL_RISK_OCC的校验逻辑，未发现高风险职业相关交易。hit值应判定为false（未命中/合规）。</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>根据规则要求，对35笔交易的描述进行了提取、翻译和关键词匹配。所有交易描述均为常规银行业务，未发现与高风险职业相关的关键词。因此判定为未命中规则（hit=false）。</t>
+          <t>已严格按照判断逻辑的步骤执行：1. 提取所有DESCRIPCION。2. 翻译成中文。3. 根据校验规则核对关键词。决策结果为正常，因此hit=false。</t>
         </is>
       </c>
     </row>
@@ -1232,23 +1172,27 @@
           <t>规则ID: MSTAR_BBVA_DTL_ANAL_FAST_IO
 规则名称: 交易明细分析_快进快出
 执行步骤与结果：
-1. 步骤1：已取Detalle de Movimientos Realizados中所有35条记录，并按OPER日期升序排序（数据已按此顺序提供）。
-2. 步骤2：统计所有记录中ABONOS取值不为空的总记录数。根据数据，'有效 Abonos (入账) 的交易数'为5，因此 total_cargo_cnt = 5。
-3. 步骤3-6：从第一条记录开始，逐一查找ABONOS值不为空的行作为起始行，并执行后续匹配。
-   - 第1个Abono（起始行）：记录3，OPER1=26/JUN，ABONOS1=24360.0。向下查找CARGOS列值与ABONOS1(24360.0)相同的记录。最近的匹配记录是记录4（Cargo:4000.0，不匹配），记录5（Cargo:12000.0，不匹配）... 遍历所有后续记录，未找到CARGOS值为24360.0的记录。因此，无法获取OPER2，本轮result无法计算，不计入result_total。
-   - 第2个Abono（起始行）：记录10，OPER1=03/JUL，ABONOS1=24360.0。向下查找CARGOS列值与ABONOS1(24360.0)相同的记录。遍历后续记录，未找到CARGOS值为24360.0的记录。本轮result无法计算，不计入result_total。
-   - 第3个Abono（起始行）：记录20，OPER1=07/JUL，ABONOS1=49618.72。向下查找CARGOS列值与ABONOS1(49618.72)相同的记录。遍历后续记录，未找到CARGOS值为49618.72的记录。本轮result无法计算，不计入result_total。
-   - 第4个Abono（起始行）：记录26，OPER1=10/JUL，ABONOS1=24940.0。向下查找CARGOS列值与ABONOS1(24940.0)相同的记录。遍历后续记录，未找到CARGOS值为24940.0的记录。本轮result无法计算，不计入result_total。
-   - 第5个Abono（起始行）：记录32，OPER1=17/JUL，ABONOS1=110490.0。向下查找CARGOS列值与ABONOS1(110490.0)相同的记录。遍历后续记录，未找到CARGOS值为110490.0的记录。本轮result无法计算，不计入result_total。
-4. 校验规则1：在所有5轮查找中，均未找到与Abonos金额匹配的Cargos记录，因此没有任何一轮的result值被计算，result_total = 0。
+1. 步骤1：已获取Detalle de Movimientos Realizados中所有35条记录，并按OPER日期升序排序（数据已按此顺序提供）。
+2. 步骤2：统计所有记录中ABONOS取值不为空的总记录数。根据数据，'有效 Abonos (入账) 的交易数'为5。因此，total_cargo_cnt = 5。
+3. 步骤3-6：遍历所有记录，查找ABONOS不为空的记录作为起始行，并寻找其最近的下一个CARGOS值与ABONOS值相同的记录，计算日期间隔。
+   - 第1笔Abonos（起始行）：记录3，OPER1=26/JUN，ABONOS1=24360.0。向下查找，在记录4找到CARGOS=4000.0，不匹配。继续查找，未找到CARGOS=24360.0的记录。因此，无法找到匹配的CARGOS记录，本轮次无result值。
+   - 第2笔Abonos（起始行）：记录10，OPER1=03/JUL，ABONOS1=24360.0。向下查找，未找到CARGOS=24360.0的记录。本轮次无result值。
+   - 第3笔Abonos（起始行）：记录20，OPER1=07/JUL，ABONOS1=49618.72。向下查找，未找到CARGOS=49618.72的记录。本轮次无result值。
+   - 第4笔Abonos（起始行）：记录26，OPER1=10/JUL，ABONOS1=24940.0。向下查找，未找到CARGOS=24940.0的记录。本轮次无result值。
+   - 第5笔Abonos（起始行）：记录32，OPER1=17/JUL，ABONOS1=110490.0。向下查找，未找到CARGOS=110490.0的记录。本轮次无result值。
+4. 校验规则1：由于在所有5轮次中，均未找到与ABONOS值相同的CARGOS记录，因此没有任何轮次能计算出result值。result_total = 0。
 5. 校验规则2：ratio = result_total / total_cargo_cnt = 0 / 5 = 0。
 6. 决策结果：ratio (0) &lt;= 0.8，因此输出“未命中快进快出（无异常）”。
-结论：根据规则逻辑，未发现快进快出模式。ratio为0，小于等于阈值0.8，判定为无异常。</t>
+关键数据：
+- total_cargo_cnt (ABONOS不为空的记录数): 5
+- result_total (间隔天数&lt;=1的轮次数): 0
+- ratio: 0.0
+结论：根据规则逻辑，ratio为0，未超过0.8的阈值，因此判定为未命中快进快出模式，无异常。</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>所有5笔Abonos交易均未在后续交易中找到金额完全匹配的Cargos交易，因此无法计算任何日期间隔（result）。根据规则，只有找到匹配对且间隔天数&lt;=1时才计数。由于没有匹配对，result_total为0，ratio为0，未触发异常阈值。</t>
+          <t>分析严格遵循了规则定义的逻辑。核心发现是：在5笔入账（Abonos）交易发生后，均未在后续交易中找到金额相等的出账（Cargos）记录。因此，无法构成‘快进快出’模式。规则关注的是‘入账后短期内出现等额出账’的行为，本例中不存在此类行为。</t>
         </is>
       </c>
     </row>
@@ -1275,18 +1219,20 @@
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>执行步骤1（判断逻辑）：获取解析后Detalle de Movimientos Realizados部分的description对应的所有的值。
-已获取全部35笔交易的描述（DESCRIPCION）字段。
-执行校验规则：判断DESCRIPCION对应的所有的值是否包含以下任意关键词：Apuesta，médico / médic，juego。
-检查过程：逐条检查35笔交易的描述，未发现任何描述包含关键词“Apuesta”、“médico”、“médic”或“juego”。
-检查结果：所有描述均未命中关键词。
-决策结果：全部都没命中，输出正常。
-结论：根据规则MSTAR_BBVA_DTL_ANAL_ABN_REM的校验逻辑，未发现包含异常关键词的交易。</t>
+          <t>执行步骤1（判断逻辑）：获取解析后Detalle de Movimientos Realizados部分的description对应的所有值。
+已获取全部35笔交易的描述字段。
+执行校验规则：判断所有描述值是否包含以下任意关键词：Apuesta，médico / médic，juego。
+检查结果：对35条描述逐一进行关键词匹配。
+- 关键词 'Apuesta'：未在任何描述中发现。
+- 关键词 'médico / médic'：未在任何描述中发现。
+- 关键词 'juego'：未在任何描述中发现。
+决策结果：所有关键词均未命中。
+结论：根据规则，全部关键词均未命中，输出正常。因此规则未命中（hit=false）。</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>规则要求检查描述中是否包含特定关键词（Apuesta，médico / médic，juego）。经核查所有35笔交易描述，均不包含这些关键词，因此判定为正常（hit=false）。</t>
+          <t>已严格按照判断逻辑、校验规则和决策结果执行。所有交易描述中均未发现规则指定的异常关键词。</t>
         </is>
       </c>
     </row>
@@ -1316,47 +1262,40 @@
           <t>规则ID: MSTAR_BBVA_TIME_CHK_SPECIAL
 规则名称: 交易时间校验_特殊时间段交易
 执行步骤：
-1. 按照判断逻辑步骤1，遍历Detalle de Movimientos Realizados的35条记录，从描述(description)中提取时间。
-2. 提取结果：
-   - 记录1: "RETIRO CAJERO AUTOMATICO JUN21 11:25 BBVA 9340 FOLIO:8584" -&gt; 提取时间 "11:25"
-   - 记录5: "RETIRO CAJERO AUTOMATICO JUN27 10:24 BBVA 9340 FOLIO:1557" -&gt; 提取时间 "10:24"
-   - 记录8: "RETIRO CAJERO AUTOMATICO JUN28 09:10 BBVA 6728 FOLIO:1767" -&gt; 提取时间 "09:10"
-   - 记录12: "RETIRO CAJERO AUTOMATICO JUL03 11:07 BBVA 4990 FOLIO:9573" -&gt; 提取时间 "11:07"
-   - 记录15: "RETIRO CAJERO AUTOMATICO JUL04 12:29 BBVA C516 FOLIO:3411" -&gt; 提取时间 "12:29"
-   - 记录22: "RETIRO CAJERO AUTOMATICO JUL07 15:01 BBVA 4990 FOLIO:1760" -&gt; 提取时间 "15:01"
-   - 记录27: "RETIRO CAJERO AUTOMATICO JUL10 20:05 BBVA E934 FOLIO:6021" -&gt; 提取时间 "20:05"
-   - 记录29: "RETIRO CAJERO AUTOMATICO JUL11 21:00 BBVA 9340 FOLIO:8887" -&gt; 提取时间 "21:00"
-   - 记录31: "RETIRO CAJERO AUTOMATICO JUL17 12:46 BBVA 9340 FOLIO:1908" -&gt; 提取时间 "12:46"
-   - 记录33: "RETIRO CAJERO AUTOMATICO JUL18 10:23 BBVA 7690 FOLIO:3685" -&gt; 提取时间 "10:23"
-   - 其他记录的描述中不包含时间信息（如PAGO TARJETA DE CREDITO, SPEI RECIBIDO等），按照规则跳过。
-3. 按照步骤2，将获取到的时间放入集合：{'11:25', '10:24', '09:10', '11:07', '12:29', '15:01', '20:05', '21:00', '12:46', '10:23'}。
-4. 按照步骤3，统计集合中处于2点至5点（包括2点和5点，24小时制）的交易笔数(count)。
-   - 检查每个时间：
-     * 11:25 -&gt; 不在2-5点区间
-     * 10:24 -&gt; 不在2-5点区间
-     * 09:10 -&gt; 不在2-5点区间
-     * 11:07 -&gt; 不在2-5点区间
-     * 12:29 -&gt; 不在2-5点区间
-     * 15:01 -&gt; 不在2-5点区间
-     * 20:05 -&gt; 不在2-5点区间
-     * 21:00 -&gt; 不在2-5点区间
-     * 12:46 -&gt; 不在2-5点区间
-     * 10:23 -&gt; 不在2-5点区间
-   - 统计结果：count = 0。
-校验规则：
-判断 count 是否大于 10。
-当前 count = 0，不大于10。
-决策结果：
-根据规则，count &lt;= 10 输出“正常”。
-结论：
-交易时间正常，未发现异常数量的凌晨2点至5点交易。
-hit值判定：
-根据决策结果“正常”，判定为未命中规则，hit=false。</t>
+步骤1：遍历Detalle de Movimientos Realizados的35条记录，从描述(description)中提取时间。
+- 记录1: "RETIRO CAJERO AUTOMATICO JUN21 11:25 BBVA 9340 FOLIO:8584" -&gt; 提取时间: 11:25
+- 记录5: "RETIRO CAJERO AUTOMATICO JUN27 10:24 BBVA 9340 FOLIO:1557" -&gt; 提取时间: 10:24
+- 记录8: "RETIRO CAJERO AUTOMATICO JUN28 09:10 BBVA 6728 FOLIO:1767" -&gt; 提取时间: 09:10
+- 记录12: "RETIRO CAJERO AUTOMATICO JUL03 11:07 BBVA 4990 FOLIO:9573" -&gt; 提取时间: 11:07
+- 记录15: "RETIRO CAJERO AUTOMATICO JUL04 12:29 BBVA C516 FOLIO:3411" -&gt; 提取时间: 12:29
+- 记录22: "RETIRO CAJERO AUTOMATICO JUL07 15:01 BBVA 4990 FOLIO:1760" -&gt; 提取时间: 15:01
+- 记录27: "RETIRO CAJERO AUTOMATICO JUL10 20:05 BBVA E934 FOLIO:6021" -&gt; 提取时间: 20:05
+- 记录29: "RETIRO CAJERO AUTOMATICO JUL11 21:00 BBVA 9340 FOLIO:8887" -&gt; 提取时间: 21:00
+- 记录31: "RETIRO CAJERO AUTOMATICO JUL17 12:46 BBVA 9340 FOLIO:1908" -&gt; 提取时间: 12:46
+- 记录33: "RETIRO CAJERO AUTOMATICO JUL18 10:23 BBVA 7690 FOLIO:3685" -&gt; 提取时间: 10:23
+- 其他记录的描述中不包含时间信息，跳过。
+步骤2：将提取到的时间放入集合：{'11:25', '10:24', '09:10', '11:07', '12:29', '15:01', '20:05', '21:00', '12:46', '10:23'}。
+步骤3：统计集合中处于2点至5点（含2点和5点）的交易笔数。检查每个时间：
+- 11:25 -&gt; 不在2-5点区间
+- 10:24 -&gt; 不在2-5点区间
+- 09:10 -&gt; 不在2-5点区间
+- 11:07 -&gt; 不在2-5点区间
+- 12:29 -&gt; 不在2-5点区间
+- 15:01 -&gt; 不在2-5点区间
+- 20:05 -&gt; 不在2-5点区间
+- 21:00 -&gt; 不在2-5点区间
+- 12:46 -&gt; 不在2-5点区间
+- 10:23 -&gt; 不在2-5点区间
+统计结果：count = 0。
+校验规则：判断 count 是否大于 10。
+比较结果：count = 0，0 &lt;= 10。
+决策结果：根据规则，count &lt;= 10，输出“正常”。
+结论：未发现交易时间异常。</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>严格按照规则步骤执行，从描述中提取了所有包含时间的交易，并统计了凌晨2-5点的交易笔数。所有提取到时间的交易均不在该特殊时间段内，因此count为0，符合规则要求。</t>
+          <t>所有包含时间的交易记录均已检查，无交易发生在凌晨2点至5点之间。规则校验通过。</t>
         </is>
       </c>
     </row>
